--- a/Code/Results/Cases/Case_5_100/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_100/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9949353288835526</v>
+        <v>1.030122438832786</v>
       </c>
       <c r="D2">
-        <v>1.013397711156325</v>
+        <v>1.033003538817872</v>
       </c>
       <c r="E2">
-        <v>1.008160144054242</v>
+        <v>1.038556920987629</v>
       </c>
       <c r="F2">
-        <v>1.010324879803513</v>
+        <v>1.046434912917202</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040237516769059</v>
+        <v>1.030617215237833</v>
       </c>
       <c r="J2">
-        <v>1.01726858589351</v>
+        <v>1.035265428256908</v>
       </c>
       <c r="K2">
-        <v>1.024673497496829</v>
+        <v>1.03580713958557</v>
       </c>
       <c r="L2">
-        <v>1.019506953771685</v>
+        <v>1.041344615790479</v>
       </c>
       <c r="M2">
-        <v>1.021642222558514</v>
+        <v>1.049200357856858</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9998011487064397</v>
+        <v>1.031149140743714</v>
       </c>
       <c r="D3">
-        <v>1.016885609090675</v>
+        <v>1.03375066270984</v>
       </c>
       <c r="E3">
-        <v>1.012380867717629</v>
+        <v>1.039505178173775</v>
       </c>
       <c r="F3">
-        <v>1.015227157442306</v>
+        <v>1.047551122915422</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041240459323343</v>
+        <v>1.030760051608249</v>
       </c>
       <c r="J3">
-        <v>1.020297236076949</v>
+        <v>1.035933056745677</v>
       </c>
       <c r="K3">
-        <v>1.027306899675067</v>
+        <v>1.036363318453543</v>
       </c>
       <c r="L3">
-        <v>1.022857746508503</v>
+        <v>1.042102545651459</v>
       </c>
       <c r="M3">
-        <v>1.025668841807877</v>
+        <v>1.050127418465016</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00288221758472</v>
+        <v>1.031813752364017</v>
       </c>
       <c r="D4">
-        <v>1.019095584551681</v>
+        <v>1.034234010266911</v>
       </c>
       <c r="E4">
-        <v>1.015059757813012</v>
+        <v>1.040119421221849</v>
       </c>
       <c r="F4">
-        <v>1.018339276795954</v>
+        <v>1.048274367238374</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041864064985428</v>
+        <v>1.030851057286696</v>
       </c>
       <c r="J4">
-        <v>1.022212482193918</v>
+        <v>1.036364755063837</v>
       </c>
       <c r="K4">
-        <v>1.028968878574259</v>
+        <v>1.036722449190801</v>
       </c>
       <c r="L4">
-        <v>1.024979760086026</v>
+        <v>1.04259301276967</v>
       </c>
       <c r="M4">
-        <v>1.028221289052628</v>
+        <v>1.050727682543994</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004161967931683</v>
+        <v>1.032093218738324</v>
       </c>
       <c r="D5">
-        <v>1.020013786681995</v>
+        <v>1.034437186662235</v>
       </c>
       <c r="E5">
-        <v>1.016173928639025</v>
+        <v>1.040377805673</v>
       </c>
       <c r="F5">
-        <v>1.01963380919236</v>
+        <v>1.048578653724663</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042120286708149</v>
+        <v>1.030888975958084</v>
       </c>
       <c r="J5">
-        <v>1.023007353923733</v>
+        <v>1.036546168222429</v>
       </c>
       <c r="K5">
-        <v>1.029657818558706</v>
+        <v>1.036873246501165</v>
       </c>
       <c r="L5">
-        <v>1.025861183745441</v>
+        <v>1.042799213188205</v>
       </c>
       <c r="M5">
-        <v>1.029282100401373</v>
+        <v>1.050980127361645</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004375950158914</v>
+        <v>1.032140146098097</v>
       </c>
       <c r="D6">
-        <v>1.020167329554359</v>
+        <v>1.034471299500084</v>
       </c>
       <c r="E6">
-        <v>1.016360310107895</v>
+        <v>1.040421198727258</v>
       </c>
       <c r="F6">
-        <v>1.019850373151075</v>
+        <v>1.04862975850637</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042162962672753</v>
+        <v>1.030895322713586</v>
       </c>
       <c r="J6">
-        <v>1.023140222464648</v>
+        <v>1.036576624004903</v>
       </c>
       <c r="K6">
-        <v>1.02977293097412</v>
+        <v>1.036898555384107</v>
       </c>
       <c r="L6">
-        <v>1.026008563679651</v>
+        <v>1.04283383560195</v>
       </c>
       <c r="M6">
-        <v>1.029459510654029</v>
+        <v>1.051022519443412</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002899377907931</v>
+        <v>1.031817486357571</v>
       </c>
       <c r="D7">
-        <v>1.01910789586365</v>
+        <v>1.03423672521116</v>
       </c>
       <c r="E7">
-        <v>1.015074692110779</v>
+        <v>1.04012287315275</v>
       </c>
       <c r="F7">
-        <v>1.018356627919093</v>
+        <v>1.048278432208176</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041867511813093</v>
+        <v>1.030851565294767</v>
       </c>
       <c r="J7">
-        <v>1.022223143316547</v>
+        <v>1.036367179402111</v>
       </c>
       <c r="K7">
-        <v>1.02897812217087</v>
+        <v>1.036724464864919</v>
       </c>
       <c r="L7">
-        <v>1.024991579148254</v>
+        <v>1.042595767998822</v>
       </c>
       <c r="M7">
-        <v>1.028235511156941</v>
+        <v>1.050731055356055</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9965941006189345</v>
+        <v>1.030469362162039</v>
       </c>
       <c r="D8">
-        <v>1.014586403950461</v>
+        <v>1.033256051193803</v>
       </c>
       <c r="E8">
-        <v>1.009597651904083</v>
+        <v>1.038877252453745</v>
       </c>
       <c r="F8">
-        <v>1.011994392107826</v>
+        <v>1.046811937734016</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0405817987805</v>
+        <v>1.030665781029764</v>
       </c>
       <c r="J8">
-        <v>1.018301564204943</v>
+        <v>1.035491118636849</v>
       </c>
       <c r="K8">
-        <v>1.025572352583502</v>
+        <v>1.035995258576101</v>
       </c>
       <c r="L8">
-        <v>1.020649167580603</v>
+        <v>1.041600753999041</v>
       </c>
       <c r="M8">
-        <v>1.023014306345014</v>
+        <v>1.049513580476975</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9849374550561543</v>
+        <v>1.028095848571114</v>
       </c>
       <c r="D9">
-        <v>1.006242226160958</v>
+        <v>1.031527320859324</v>
       </c>
       <c r="E9">
-        <v>0.9995245535592049</v>
+        <v>1.036687372711874</v>
       </c>
       <c r="F9">
-        <v>1.000297320959856</v>
+        <v>1.04423532739616</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038115692351957</v>
+        <v>1.030327555264267</v>
       </c>
       <c r="J9">
-        <v>1.011033557464389</v>
+        <v>1.033945097979429</v>
       </c>
       <c r="K9">
-        <v>1.019234832983236</v>
+        <v>1.034704558457858</v>
       </c>
       <c r="L9">
-        <v>1.012625349262841</v>
+        <v>1.039847709820645</v>
       </c>
       <c r="M9">
-        <v>1.01338557617994</v>
+        <v>1.047371272453085</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9767551817089846</v>
+        <v>1.026514897574516</v>
       </c>
       <c r="D10">
-        <v>1.000400266708281</v>
+        <v>1.030374449674563</v>
       </c>
       <c r="E10">
-        <v>0.9924925451529822</v>
+        <v>1.03523089481812</v>
       </c>
       <c r="F10">
-        <v>0.9921327121067761</v>
+        <v>1.042522682524821</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036327428261494</v>
+        <v>1.030094799734695</v>
       </c>
       <c r="J10">
-        <v>1.005922399568799</v>
+        <v>1.032912907518877</v>
       </c>
       <c r="K10">
-        <v>1.014762297974875</v>
+        <v>1.033840268825286</v>
       </c>
       <c r="L10">
-        <v>1.006998685044053</v>
+        <v>1.038679243567145</v>
       </c>
       <c r="M10">
-        <v>1.006645480728704</v>
+        <v>1.045945137061213</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.973103839611882</v>
+        <v>1.025830659779186</v>
       </c>
       <c r="D11">
-        <v>0.9977981134290669</v>
+        <v>1.029875164304372</v>
       </c>
       <c r="E11">
-        <v>0.9893644728038317</v>
+        <v>1.03460104756962</v>
       </c>
       <c r="F11">
-        <v>0.9885006894138989</v>
+        <v>1.041782301603727</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0355165938861</v>
+        <v>1.029992294000037</v>
       </c>
       <c r="J11">
-        <v>1.003639974576534</v>
+        <v>1.032465605186363</v>
       </c>
       <c r="K11">
-        <v>1.012761673911748</v>
+        <v>1.033465123151509</v>
       </c>
       <c r="L11">
-        <v>1.004489785924869</v>
+        <v>1.038173345033973</v>
       </c>
       <c r="M11">
-        <v>1.003642773735806</v>
+        <v>1.0453281007404</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9717302842351095</v>
+        <v>1.025576552146557</v>
       </c>
       <c r="D12">
-        <v>0.9968200752503243</v>
+        <v>1.02968969567695</v>
       </c>
       <c r="E12">
-        <v>0.9881893281624422</v>
+        <v>1.034367217572923</v>
       </c>
       <c r="F12">
-        <v>0.987136167098233</v>
+        <v>1.041507472584186</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035209716290224</v>
+        <v>1.029953960578202</v>
       </c>
       <c r="J12">
-        <v>1.002781200831533</v>
+        <v>1.032299403932162</v>
       </c>
       <c r="K12">
-        <v>1.012008452233677</v>
+        <v>1.033325642331046</v>
       </c>
       <c r="L12">
-        <v>1.00354635482951</v>
+        <v>1.037985440460702</v>
       </c>
       <c r="M12">
-        <v>1.002514038423172</v>
+        <v>1.045098979882269</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9720257156701354</v>
+        <v>1.02563105689009</v>
       </c>
       <c r="D13">
-        <v>0.9970303972177907</v>
+        <v>1.029729479847276</v>
       </c>
       <c r="E13">
-        <v>0.9884420123583332</v>
+        <v>1.034417369312221</v>
       </c>
       <c r="F13">
-        <v>0.9874295751036816</v>
+        <v>1.041566416127466</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035275804009481</v>
+        <v>1.02996219490719</v>
       </c>
       <c r="J13">
-        <v>1.002965917260852</v>
+        <v>1.032335057068835</v>
       </c>
       <c r="K13">
-        <v>1.012170486161049</v>
+        <v>1.033355567540779</v>
       </c>
       <c r="L13">
-        <v>1.003749255514092</v>
+        <v>1.038025746230979</v>
       </c>
       <c r="M13">
-        <v>1.002756774793298</v>
+        <v>1.045148123734414</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9729906597769657</v>
+        <v>1.025809654168438</v>
       </c>
       <c r="D14">
-        <v>0.9977175062568382</v>
+        <v>1.029859833645552</v>
       </c>
       <c r="E14">
-        <v>0.9892676095634191</v>
+        <v>1.034581716590502</v>
       </c>
       <c r="F14">
-        <v>0.988388217737626</v>
+        <v>1.041759580448629</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035491344808825</v>
+        <v>1.029989130613227</v>
       </c>
       <c r="J14">
-        <v>1.00356921552388</v>
+        <v>1.032451868022896</v>
       </c>
       <c r="K14">
-        <v>1.012699621377132</v>
+        <v>1.033453596374235</v>
       </c>
       <c r="L14">
-        <v>1.004412040253135</v>
+        <v>1.038157812604237</v>
       </c>
       <c r="M14">
-        <v>1.00354974991747</v>
+        <v>1.045309160029229</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.973582871978384</v>
+        <v>1.025919700306341</v>
       </c>
       <c r="D15">
-        <v>0.9981393170741383</v>
+        <v>1.029940147384532</v>
       </c>
       <c r="E15">
-        <v>0.9897745096933006</v>
+        <v>1.034682992729057</v>
       </c>
       <c r="F15">
-        <v>0.9889767967321622</v>
+        <v>1.041878619410801</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035623384965565</v>
+        <v>1.030005692383213</v>
       </c>
       <c r="J15">
-        <v>1.003939454695097</v>
+        <v>1.03252383206229</v>
       </c>
       <c r="K15">
-        <v>1.013024285380625</v>
+        <v>1.03351397730075</v>
       </c>
       <c r="L15">
-        <v>1.004818858726426</v>
+        <v>1.038239184215834</v>
       </c>
       <c r="M15">
-        <v>1.004036529654732</v>
+        <v>1.045408389608405</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9769951422453604</v>
+        <v>1.026560315019395</v>
       </c>
       <c r="D16">
-        <v>1.000571385773021</v>
+        <v>1.030407583895161</v>
       </c>
       <c r="E16">
-        <v>0.9926983305132154</v>
+        <v>1.03527271296995</v>
       </c>
       <c r="F16">
-        <v>0.9923716449782557</v>
+        <v>1.042571844593721</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036380453731315</v>
+        <v>1.030101566471174</v>
       </c>
       <c r="J16">
-        <v>1.006072369370826</v>
+        <v>1.032942586012231</v>
       </c>
       <c r="K16">
-        <v>1.014893683896588</v>
+        <v>1.033865147042236</v>
       </c>
       <c r="L16">
-        <v>1.007163612764019</v>
+        <v>1.038712819580425</v>
       </c>
       <c r="M16">
-        <v>1.006842924088684</v>
+        <v>1.045986098075572</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9791058727253028</v>
+        <v>1.026962242566145</v>
       </c>
       <c r="D17">
-        <v>1.002077137087347</v>
+        <v>1.030700772464746</v>
       </c>
       <c r="E17">
-        <v>0.9945095918020663</v>
+        <v>1.035642848080297</v>
       </c>
       <c r="F17">
-        <v>0.9944746416529597</v>
+        <v>1.043007009416558</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03684542422368</v>
+        <v>1.030161245219143</v>
       </c>
       <c r="J17">
-        <v>1.007391355884972</v>
+        <v>1.033205163984797</v>
       </c>
       <c r="K17">
-        <v>1.016048844322507</v>
+        <v>1.034085185316039</v>
       </c>
       <c r="L17">
-        <v>1.008614577508274</v>
+        <v>1.039009933551801</v>
       </c>
       <c r="M17">
-        <v>1.008580249003109</v>
+        <v>1.046348610677633</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9803266424146032</v>
+        <v>1.027196711404921</v>
       </c>
       <c r="D18">
-        <v>1.002948458313846</v>
+        <v>1.030871776180561</v>
       </c>
       <c r="E18">
-        <v>0.995558098684461</v>
+        <v>1.0358588204493</v>
       </c>
       <c r="F18">
-        <v>0.9956920188670961</v>
+        <v>1.043260949999512</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037113126760476</v>
+        <v>1.030195888743459</v>
       </c>
       <c r="J18">
-        <v>1.008154056843483</v>
+        <v>1.033358286797126</v>
       </c>
       <c r="K18">
-        <v>1.016716490873538</v>
+        <v>1.034213442795246</v>
       </c>
       <c r="L18">
-        <v>1.009453948169917</v>
+        <v>1.039183240391026</v>
       </c>
       <c r="M18">
-        <v>1.009585530331184</v>
+        <v>1.046560105373249</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9807411612929545</v>
+        <v>1.027276664528646</v>
       </c>
       <c r="D19">
-        <v>1.003244393143608</v>
+        <v>1.030930082607738</v>
       </c>
       <c r="E19">
-        <v>0.995914282086555</v>
+        <v>1.035932474799364</v>
       </c>
       <c r="F19">
-        <v>0.9961055677363856</v>
+        <v>1.043347556894301</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037203817791443</v>
+        <v>1.030207673109617</v>
       </c>
       <c r="J19">
-        <v>1.008413008357833</v>
+        <v>1.033410491859368</v>
       </c>
       <c r="K19">
-        <v>1.016943114023226</v>
+        <v>1.034257160485773</v>
       </c>
       <c r="L19">
-        <v>1.009738990657274</v>
+        <v>1.039242334429264</v>
       </c>
       <c r="M19">
-        <v>1.009926958056705</v>
+        <v>1.046632227599615</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.978880492359392</v>
+        <v>1.026919116306414</v>
       </c>
       <c r="D20">
-        <v>1.001916308002512</v>
+        <v>1.030669316949313</v>
       </c>
       <c r="E20">
-        <v>0.9943160903066557</v>
+        <v>1.035603127929144</v>
       </c>
       <c r="F20">
-        <v>0.9942499746405997</v>
+        <v>1.042960308317344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036795901513536</v>
+        <v>1.030154859430195</v>
       </c>
       <c r="J20">
-        <v>1.007250532091323</v>
+        <v>1.033176995416539</v>
       </c>
       <c r="K20">
-        <v>1.015925544930922</v>
+        <v>1.034061586298952</v>
       </c>
       <c r="L20">
-        <v>1.008459626183011</v>
+        <v>1.038978055484809</v>
       </c>
       <c r="M20">
-        <v>1.008394690503783</v>
+        <v>1.046309711618725</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9727069933815388</v>
+        <v>1.025757060375539</v>
       </c>
       <c r="D21">
-        <v>0.9975154916504901</v>
+        <v>1.029821448019818</v>
       </c>
       <c r="E21">
-        <v>0.9890248634962129</v>
+        <v>1.034533317004954</v>
       </c>
       <c r="F21">
-        <v>0.9881063548240764</v>
+        <v>1.041702693360109</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03542803249254</v>
+        <v>1.029981205844767</v>
       </c>
       <c r="J21">
-        <v>1.003391867140923</v>
+        <v>1.032417471575225</v>
       </c>
       <c r="K21">
-        <v>1.012544087178735</v>
+        <v>1.03342473304843</v>
       </c>
       <c r="L21">
-        <v>1.00421718972992</v>
+        <v>1.038118922106554</v>
       </c>
       <c r="M21">
-        <v>1.003316614587546</v>
+        <v>1.045261736811322</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.968724911156468</v>
+        <v>1.025026711751945</v>
       </c>
       <c r="D22">
-        <v>0.9946817675281338</v>
+        <v>1.029288291281232</v>
       </c>
       <c r="E22">
-        <v>0.9856210498191625</v>
+        <v>1.033861398142577</v>
       </c>
       <c r="F22">
-        <v>0.9841538616754807</v>
+        <v>1.040913030708698</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034534916508276</v>
+        <v>1.029870529085378</v>
       </c>
       <c r="J22">
-        <v>1.000901930226061</v>
+        <v>1.031939620886945</v>
       </c>
       <c r="K22">
-        <v>1.010359321010003</v>
+        <v>1.03302353727427</v>
       </c>
       <c r="L22">
-        <v>1.001482841436299</v>
+        <v>1.037578801194078</v>
       </c>
       <c r="M22">
-        <v>1.000045908070239</v>
+        <v>1.044603261213015</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9708457764487229</v>
+        <v>1.02541385663534</v>
       </c>
       <c r="D23">
-        <v>0.9961905124397527</v>
+        <v>1.02957093389433</v>
       </c>
       <c r="E23">
-        <v>0.9874330391104899</v>
+        <v>1.034217527215449</v>
       </c>
       <c r="F23">
-        <v>0.9862579799229831</v>
+        <v>1.041331546215502</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035011585600671</v>
+        <v>1.029929342416101</v>
       </c>
       <c r="J23">
-        <v>1.002228147723699</v>
+        <v>1.032192967632886</v>
       </c>
       <c r="K23">
-        <v>1.011523244579403</v>
+        <v>1.033236292566044</v>
       </c>
       <c r="L23">
-        <v>1.002938937737254</v>
+        <v>1.037865124605453</v>
       </c>
       <c r="M23">
-        <v>1.001787421592294</v>
+        <v>1.04495229092888</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9789823640604051</v>
+        <v>1.026938603109988</v>
       </c>
       <c r="D24">
-        <v>1.001989001203115</v>
+        <v>1.030683530368174</v>
       </c>
       <c r="E24">
-        <v>0.9944035498822881</v>
+        <v>1.035621075512142</v>
       </c>
       <c r="F24">
-        <v>0.9943515205591592</v>
+        <v>1.042981410174409</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036818289516232</v>
+        <v>1.030157745406514</v>
       </c>
       <c r="J24">
-        <v>1.007314184784405</v>
+        <v>1.033189723686521</v>
       </c>
       <c r="K24">
-        <v>1.015981277554283</v>
+        <v>1.034072249948158</v>
       </c>
       <c r="L24">
-        <v>1.008529663457204</v>
+        <v>1.038992459794731</v>
       </c>
       <c r="M24">
-        <v>1.008478561289332</v>
+        <v>1.046327288283061</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.988020022635983</v>
+        <v>1.028709214283404</v>
       </c>
       <c r="D25">
-        <v>1.008446597088345</v>
+        <v>1.031974311040476</v>
       </c>
       <c r="E25">
-        <v>1.002181939060834</v>
+        <v>1.037252905223277</v>
       </c>
       <c r="F25">
-        <v>1.003382816076773</v>
+        <v>1.044900546729857</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038777926551336</v>
+        <v>1.03041627812603</v>
       </c>
       <c r="J25">
-        <v>1.012957398196446</v>
+        <v>1.034345049684559</v>
       </c>
       <c r="K25">
-        <v>1.020915190456261</v>
+        <v>1.035038912115195</v>
       </c>
       <c r="L25">
-        <v>1.014746477402756</v>
+        <v>1.040300875428463</v>
       </c>
       <c r="M25">
-        <v>1.01592884418018</v>
+        <v>1.047924747583108</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_100/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_100/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030122438832786</v>
+        <v>0.9949353288835526</v>
       </c>
       <c r="D2">
-        <v>1.033003538817872</v>
+        <v>1.013397711156325</v>
       </c>
       <c r="E2">
-        <v>1.038556920987629</v>
+        <v>1.008160144054242</v>
       </c>
       <c r="F2">
-        <v>1.046434912917202</v>
+        <v>1.010324879803513</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030617215237833</v>
+        <v>1.04023751676906</v>
       </c>
       <c r="J2">
-        <v>1.035265428256908</v>
+        <v>1.01726858589351</v>
       </c>
       <c r="K2">
-        <v>1.03580713958557</v>
+        <v>1.024673497496829</v>
       </c>
       <c r="L2">
-        <v>1.041344615790479</v>
+        <v>1.019506953771685</v>
       </c>
       <c r="M2">
-        <v>1.049200357856858</v>
+        <v>1.021642222558514</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031149140743714</v>
+        <v>0.9998011487064397</v>
       </c>
       <c r="D3">
-        <v>1.03375066270984</v>
+        <v>1.016885609090675</v>
       </c>
       <c r="E3">
-        <v>1.039505178173775</v>
+        <v>1.01238086771763</v>
       </c>
       <c r="F3">
-        <v>1.047551122915422</v>
+        <v>1.015227157442306</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030760051608249</v>
+        <v>1.041240459323343</v>
       </c>
       <c r="J3">
-        <v>1.035933056745677</v>
+        <v>1.020297236076949</v>
       </c>
       <c r="K3">
-        <v>1.036363318453543</v>
+        <v>1.027306899675067</v>
       </c>
       <c r="L3">
-        <v>1.042102545651459</v>
+        <v>1.022857746508502</v>
       </c>
       <c r="M3">
-        <v>1.050127418465016</v>
+        <v>1.025668841807877</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031813752364017</v>
+        <v>1.002882217584719</v>
       </c>
       <c r="D4">
-        <v>1.034234010266911</v>
+        <v>1.019095584551681</v>
       </c>
       <c r="E4">
-        <v>1.040119421221849</v>
+        <v>1.015059757813012</v>
       </c>
       <c r="F4">
-        <v>1.048274367238374</v>
+        <v>1.018339276795954</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030851057286696</v>
+        <v>1.041864064985428</v>
       </c>
       <c r="J4">
-        <v>1.036364755063837</v>
+        <v>1.022212482193917</v>
       </c>
       <c r="K4">
-        <v>1.036722449190801</v>
+        <v>1.028968878574258</v>
       </c>
       <c r="L4">
-        <v>1.04259301276967</v>
+        <v>1.024979760086026</v>
       </c>
       <c r="M4">
-        <v>1.050727682543994</v>
+        <v>1.028221289052627</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032093218738324</v>
+        <v>1.004161967931684</v>
       </c>
       <c r="D5">
-        <v>1.034437186662235</v>
+        <v>1.020013786681996</v>
       </c>
       <c r="E5">
-        <v>1.040377805673</v>
+        <v>1.016173928639025</v>
       </c>
       <c r="F5">
-        <v>1.048578653724663</v>
+        <v>1.019633809192362</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030888975958084</v>
+        <v>1.042120286708149</v>
       </c>
       <c r="J5">
-        <v>1.036546168222429</v>
+        <v>1.023007353923734</v>
       </c>
       <c r="K5">
-        <v>1.036873246501165</v>
+        <v>1.029657818558708</v>
       </c>
       <c r="L5">
-        <v>1.042799213188205</v>
+        <v>1.025861183745442</v>
       </c>
       <c r="M5">
-        <v>1.050980127361645</v>
+        <v>1.029282100401374</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032140146098097</v>
+        <v>1.004375950158915</v>
       </c>
       <c r="D6">
-        <v>1.034471299500084</v>
+        <v>1.02016732955436</v>
       </c>
       <c r="E6">
-        <v>1.040421198727258</v>
+        <v>1.016360310107896</v>
       </c>
       <c r="F6">
-        <v>1.04862975850637</v>
+        <v>1.019850373151076</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030895322713586</v>
+        <v>1.042162962672754</v>
       </c>
       <c r="J6">
-        <v>1.036576624004903</v>
+        <v>1.023140222464649</v>
       </c>
       <c r="K6">
-        <v>1.036898555384107</v>
+        <v>1.029772930974121</v>
       </c>
       <c r="L6">
-        <v>1.04283383560195</v>
+        <v>1.026008563679652</v>
       </c>
       <c r="M6">
-        <v>1.051022519443412</v>
+        <v>1.02945951065403</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031817486357571</v>
+        <v>1.002899377907932</v>
       </c>
       <c r="D7">
-        <v>1.03423672521116</v>
+        <v>1.01910789586365</v>
       </c>
       <c r="E7">
-        <v>1.04012287315275</v>
+        <v>1.015074692110779</v>
       </c>
       <c r="F7">
-        <v>1.048278432208176</v>
+        <v>1.018356627919093</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030851565294767</v>
+        <v>1.041867511813093</v>
       </c>
       <c r="J7">
-        <v>1.036367179402111</v>
+        <v>1.022223143316547</v>
       </c>
       <c r="K7">
-        <v>1.036724464864919</v>
+        <v>1.02897812217087</v>
       </c>
       <c r="L7">
-        <v>1.042595767998822</v>
+        <v>1.024991579148254</v>
       </c>
       <c r="M7">
-        <v>1.050731055356055</v>
+        <v>1.028235511156941</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030469362162039</v>
+        <v>0.9965941006189343</v>
       </c>
       <c r="D8">
-        <v>1.033256051193803</v>
+        <v>1.01458640395046</v>
       </c>
       <c r="E8">
-        <v>1.038877252453745</v>
+        <v>1.009597651904083</v>
       </c>
       <c r="F8">
-        <v>1.046811937734016</v>
+        <v>1.011994392107825</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030665781029764</v>
+        <v>1.0405817987805</v>
       </c>
       <c r="J8">
-        <v>1.035491118636849</v>
+        <v>1.018301564204943</v>
       </c>
       <c r="K8">
-        <v>1.035995258576101</v>
+        <v>1.025572352583502</v>
       </c>
       <c r="L8">
-        <v>1.041600753999041</v>
+        <v>1.020649167580602</v>
       </c>
       <c r="M8">
-        <v>1.049513580476975</v>
+        <v>1.023014306345014</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028095848571114</v>
+        <v>0.984937455056154</v>
       </c>
       <c r="D9">
-        <v>1.031527320859324</v>
+        <v>1.006242226160958</v>
       </c>
       <c r="E9">
-        <v>1.036687372711874</v>
+        <v>0.9995245535592041</v>
       </c>
       <c r="F9">
-        <v>1.04423532739616</v>
+        <v>1.000297320959855</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030327555264267</v>
+        <v>1.038115692351957</v>
       </c>
       <c r="J9">
-        <v>1.033945097979429</v>
+        <v>1.011033557464389</v>
       </c>
       <c r="K9">
-        <v>1.034704558457858</v>
+        <v>1.019234832983236</v>
       </c>
       <c r="L9">
-        <v>1.039847709820645</v>
+        <v>1.01262534926284</v>
       </c>
       <c r="M9">
-        <v>1.047371272453085</v>
+        <v>1.01338557617994</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026514897574516</v>
+        <v>0.9767551817089837</v>
       </c>
       <c r="D10">
-        <v>1.030374449674563</v>
+        <v>1.000400266708281</v>
       </c>
       <c r="E10">
-        <v>1.03523089481812</v>
+        <v>0.9924925451529814</v>
       </c>
       <c r="F10">
-        <v>1.042522682524821</v>
+        <v>0.9921327121067752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030094799734695</v>
+        <v>1.036327428261494</v>
       </c>
       <c r="J10">
-        <v>1.032912907518877</v>
+        <v>1.005922399568798</v>
       </c>
       <c r="K10">
-        <v>1.033840268825286</v>
+        <v>1.014762297974875</v>
       </c>
       <c r="L10">
-        <v>1.038679243567145</v>
+        <v>1.006998685044052</v>
       </c>
       <c r="M10">
-        <v>1.045945137061213</v>
+        <v>1.006645480728703</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025830659779186</v>
+        <v>0.9731038396118818</v>
       </c>
       <c r="D11">
-        <v>1.029875164304372</v>
+        <v>0.9977981134290668</v>
       </c>
       <c r="E11">
-        <v>1.03460104756962</v>
+        <v>0.9893644728038318</v>
       </c>
       <c r="F11">
-        <v>1.041782301603727</v>
+        <v>0.9885006894138991</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029992294000037</v>
+        <v>1.0355165938861</v>
       </c>
       <c r="J11">
-        <v>1.032465605186363</v>
+        <v>1.003639974576534</v>
       </c>
       <c r="K11">
-        <v>1.033465123151509</v>
+        <v>1.012761673911748</v>
       </c>
       <c r="L11">
-        <v>1.038173345033973</v>
+        <v>1.004489785924869</v>
       </c>
       <c r="M11">
-        <v>1.0453281007404</v>
+        <v>1.003642773735806</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025576552146557</v>
+        <v>0.9717302842351097</v>
       </c>
       <c r="D12">
-        <v>1.02968969567695</v>
+        <v>0.9968200752503245</v>
       </c>
       <c r="E12">
-        <v>1.034367217572923</v>
+        <v>0.988189328162442</v>
       </c>
       <c r="F12">
-        <v>1.041507472584186</v>
+        <v>0.9871361670982326</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029953960578202</v>
+        <v>1.035209716290224</v>
       </c>
       <c r="J12">
-        <v>1.032299403932162</v>
+        <v>1.002781200831533</v>
       </c>
       <c r="K12">
-        <v>1.033325642331046</v>
+        <v>1.012008452233677</v>
       </c>
       <c r="L12">
-        <v>1.037985440460702</v>
+        <v>1.003546354829509</v>
       </c>
       <c r="M12">
-        <v>1.045098979882269</v>
+        <v>1.002514038423171</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02563105689009</v>
+        <v>0.9720257156701347</v>
       </c>
       <c r="D13">
-        <v>1.029729479847276</v>
+        <v>0.9970303972177903</v>
       </c>
       <c r="E13">
-        <v>1.034417369312221</v>
+        <v>0.988442012358332</v>
       </c>
       <c r="F13">
-        <v>1.041566416127466</v>
+        <v>0.9874295751036806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02996219490719</v>
+        <v>1.035275804009481</v>
       </c>
       <c r="J13">
-        <v>1.032335057068835</v>
+        <v>1.002965917260851</v>
       </c>
       <c r="K13">
-        <v>1.033355567540779</v>
+        <v>1.012170486161049</v>
       </c>
       <c r="L13">
-        <v>1.038025746230979</v>
+        <v>1.003749255514091</v>
       </c>
       <c r="M13">
-        <v>1.045148123734414</v>
+        <v>1.002756774793297</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025809654168438</v>
+        <v>0.9729906597769657</v>
       </c>
       <c r="D14">
-        <v>1.029859833645552</v>
+        <v>0.9977175062568381</v>
       </c>
       <c r="E14">
-        <v>1.034581716590502</v>
+        <v>0.9892676095634191</v>
       </c>
       <c r="F14">
-        <v>1.041759580448629</v>
+        <v>0.9883882177376259</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029989130613227</v>
+        <v>1.035491344808825</v>
       </c>
       <c r="J14">
-        <v>1.032451868022896</v>
+        <v>1.00356921552388</v>
       </c>
       <c r="K14">
-        <v>1.033453596374235</v>
+        <v>1.012699621377133</v>
       </c>
       <c r="L14">
-        <v>1.038157812604237</v>
+        <v>1.004412040253135</v>
       </c>
       <c r="M14">
-        <v>1.045309160029229</v>
+        <v>1.00354974991747</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025919700306341</v>
+        <v>0.973582871978384</v>
       </c>
       <c r="D15">
-        <v>1.029940147384532</v>
+        <v>0.9981393170741381</v>
       </c>
       <c r="E15">
-        <v>1.034682992729057</v>
+        <v>0.9897745096933003</v>
       </c>
       <c r="F15">
-        <v>1.041878619410801</v>
+        <v>0.9889767967321619</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030005692383213</v>
+        <v>1.035623384965565</v>
       </c>
       <c r="J15">
-        <v>1.03252383206229</v>
+        <v>1.003939454695097</v>
       </c>
       <c r="K15">
-        <v>1.03351397730075</v>
+        <v>1.013024285380625</v>
       </c>
       <c r="L15">
-        <v>1.038239184215834</v>
+        <v>1.004818858726426</v>
       </c>
       <c r="M15">
-        <v>1.045408389608405</v>
+        <v>1.004036529654732</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026560315019395</v>
+        <v>0.9769951422453611</v>
       </c>
       <c r="D16">
-        <v>1.030407583895161</v>
+        <v>1.000571385773021</v>
       </c>
       <c r="E16">
-        <v>1.03527271296995</v>
+        <v>0.9926983305132161</v>
       </c>
       <c r="F16">
-        <v>1.042571844593721</v>
+        <v>0.9923716449782563</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030101566471174</v>
+        <v>1.036380453731315</v>
       </c>
       <c r="J16">
-        <v>1.032942586012231</v>
+        <v>1.006072369370827</v>
       </c>
       <c r="K16">
-        <v>1.033865147042236</v>
+        <v>1.014893683896589</v>
       </c>
       <c r="L16">
-        <v>1.038712819580425</v>
+        <v>1.007163612764019</v>
       </c>
       <c r="M16">
-        <v>1.045986098075572</v>
+        <v>1.006842924088684</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026962242566145</v>
+        <v>0.9791058727253026</v>
       </c>
       <c r="D17">
-        <v>1.030700772464746</v>
+        <v>1.002077137087346</v>
       </c>
       <c r="E17">
-        <v>1.035642848080297</v>
+        <v>0.9945095918020654</v>
       </c>
       <c r="F17">
-        <v>1.043007009416558</v>
+        <v>0.994474641652959</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030161245219143</v>
+        <v>1.036845424223679</v>
       </c>
       <c r="J17">
-        <v>1.033205163984797</v>
+        <v>1.007391355884972</v>
       </c>
       <c r="K17">
-        <v>1.034085185316039</v>
+        <v>1.016048844322507</v>
       </c>
       <c r="L17">
-        <v>1.039009933551801</v>
+        <v>1.008614577508274</v>
       </c>
       <c r="M17">
-        <v>1.046348610677633</v>
+        <v>1.008580249003108</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027196711404921</v>
+        <v>0.9803266424146029</v>
       </c>
       <c r="D18">
-        <v>1.030871776180561</v>
+        <v>1.002948458313845</v>
       </c>
       <c r="E18">
-        <v>1.0358588204493</v>
+        <v>0.9955580986844605</v>
       </c>
       <c r="F18">
-        <v>1.043260949999512</v>
+        <v>0.9956920188670956</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030195888743459</v>
+        <v>1.037113126760475</v>
       </c>
       <c r="J18">
-        <v>1.033358286797126</v>
+        <v>1.008154056843482</v>
       </c>
       <c r="K18">
-        <v>1.034213442795246</v>
+        <v>1.016716490873537</v>
       </c>
       <c r="L18">
-        <v>1.039183240391026</v>
+        <v>1.009453948169916</v>
       </c>
       <c r="M18">
-        <v>1.046560105373249</v>
+        <v>1.009585530331183</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027276664528646</v>
+        <v>0.9807411612929551</v>
       </c>
       <c r="D19">
-        <v>1.030930082607738</v>
+        <v>1.003244393143608</v>
       </c>
       <c r="E19">
-        <v>1.035932474799364</v>
+        <v>0.9959142820865554</v>
       </c>
       <c r="F19">
-        <v>1.043347556894301</v>
+        <v>0.9961055677363861</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030207673109617</v>
+        <v>1.037203817791443</v>
       </c>
       <c r="J19">
-        <v>1.033410491859368</v>
+        <v>1.008413008357833</v>
       </c>
       <c r="K19">
-        <v>1.034257160485773</v>
+        <v>1.016943114023227</v>
       </c>
       <c r="L19">
-        <v>1.039242334429264</v>
+        <v>1.009738990657275</v>
       </c>
       <c r="M19">
-        <v>1.046632227599615</v>
+        <v>1.009926958056706</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026919116306414</v>
+        <v>0.9788804923593918</v>
       </c>
       <c r="D20">
-        <v>1.030669316949313</v>
+        <v>1.001916308002512</v>
       </c>
       <c r="E20">
-        <v>1.035603127929144</v>
+        <v>0.9943160903066554</v>
       </c>
       <c r="F20">
-        <v>1.042960308317344</v>
+        <v>0.9942499746405994</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030154859430195</v>
+        <v>1.036795901513536</v>
       </c>
       <c r="J20">
-        <v>1.033176995416539</v>
+        <v>1.007250532091323</v>
       </c>
       <c r="K20">
-        <v>1.034061586298952</v>
+        <v>1.015925544930922</v>
       </c>
       <c r="L20">
-        <v>1.038978055484809</v>
+        <v>1.008459626183011</v>
       </c>
       <c r="M20">
-        <v>1.046309711618725</v>
+        <v>1.008394690503783</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025757060375539</v>
+        <v>0.9727069933815381</v>
       </c>
       <c r="D21">
-        <v>1.029821448019818</v>
+        <v>0.9975154916504897</v>
       </c>
       <c r="E21">
-        <v>1.034533317004954</v>
+        <v>0.9890248634962121</v>
       </c>
       <c r="F21">
-        <v>1.041702693360109</v>
+        <v>0.9881063548240756</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029981205844767</v>
+        <v>1.035428032492539</v>
       </c>
       <c r="J21">
-        <v>1.032417471575225</v>
+        <v>1.003391867140923</v>
       </c>
       <c r="K21">
-        <v>1.03342473304843</v>
+        <v>1.012544087178734</v>
       </c>
       <c r="L21">
-        <v>1.038118922106554</v>
+        <v>1.004217189729919</v>
       </c>
       <c r="M21">
-        <v>1.045261736811322</v>
+        <v>1.003316614587545</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025026711751945</v>
+        <v>0.9687249111564682</v>
       </c>
       <c r="D22">
-        <v>1.029288291281232</v>
+        <v>0.994681767528134</v>
       </c>
       <c r="E22">
-        <v>1.033861398142577</v>
+        <v>0.9856210498191624</v>
       </c>
       <c r="F22">
-        <v>1.040913030708698</v>
+        <v>0.9841538616754809</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029870529085378</v>
+        <v>1.034534916508276</v>
       </c>
       <c r="J22">
-        <v>1.031939620886945</v>
+        <v>1.000901930226061</v>
       </c>
       <c r="K22">
-        <v>1.03302353727427</v>
+        <v>1.010359321010003</v>
       </c>
       <c r="L22">
-        <v>1.037578801194078</v>
+        <v>1.001482841436299</v>
       </c>
       <c r="M22">
-        <v>1.044603261213015</v>
+        <v>1.000045908070239</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02541385663534</v>
+        <v>0.9708457764487238</v>
       </c>
       <c r="D23">
-        <v>1.02957093389433</v>
+        <v>0.9961905124397533</v>
       </c>
       <c r="E23">
-        <v>1.034217527215449</v>
+        <v>0.9874330391104904</v>
       </c>
       <c r="F23">
-        <v>1.041331546215502</v>
+        <v>0.9862579799229835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029929342416101</v>
+        <v>1.035011585600672</v>
       </c>
       <c r="J23">
-        <v>1.032192967632886</v>
+        <v>1.002228147723699</v>
       </c>
       <c r="K23">
-        <v>1.033236292566044</v>
+        <v>1.011523244579404</v>
       </c>
       <c r="L23">
-        <v>1.037865124605453</v>
+        <v>1.002938937737255</v>
       </c>
       <c r="M23">
-        <v>1.04495229092888</v>
+        <v>1.001787421592294</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026938603109988</v>
+        <v>0.9789823640604061</v>
       </c>
       <c r="D24">
-        <v>1.030683530368174</v>
+        <v>1.001989001203116</v>
       </c>
       <c r="E24">
-        <v>1.035621075512142</v>
+        <v>0.9944035498822885</v>
       </c>
       <c r="F24">
-        <v>1.042981410174409</v>
+        <v>0.9943515205591595</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030157745406514</v>
+        <v>1.036818289516233</v>
       </c>
       <c r="J24">
-        <v>1.033189723686521</v>
+        <v>1.007314184784406</v>
       </c>
       <c r="K24">
-        <v>1.034072249948158</v>
+        <v>1.015981277554284</v>
       </c>
       <c r="L24">
-        <v>1.038992459794731</v>
+        <v>1.008529663457205</v>
       </c>
       <c r="M24">
-        <v>1.046327288283061</v>
+        <v>1.008478561289332</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.028709214283404</v>
+        <v>0.988020022635983</v>
       </c>
       <c r="D25">
-        <v>1.031974311040476</v>
+        <v>1.008446597088345</v>
       </c>
       <c r="E25">
-        <v>1.037252905223277</v>
+        <v>1.002181939060833</v>
       </c>
       <c r="F25">
-        <v>1.044900546729857</v>
+        <v>1.003382816076773</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03041627812603</v>
+        <v>1.038777926551336</v>
       </c>
       <c r="J25">
-        <v>1.034345049684559</v>
+        <v>1.012957398196446</v>
       </c>
       <c r="K25">
-        <v>1.035038912115195</v>
+        <v>1.020915190456261</v>
       </c>
       <c r="L25">
-        <v>1.040300875428463</v>
+        <v>1.014746477402756</v>
       </c>
       <c r="M25">
-        <v>1.047924747583108</v>
+        <v>1.01592884418018</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
